--- a/Data/Fresh_LWR_data/Calculated_variables_fresh.xlsx
+++ b/Data/Fresh_LWR_data/Calculated_variables_fresh.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Data\Fresh_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5419F19B-58E2-49DD-AC19-5E236A7EA0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F02738A-9DCB-4902-A9ED-B6E3570C2162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="8205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="90" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -124,6 +135,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,6 +144,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -186,7 +199,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,11 +482,15 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -545,31 +561,31 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>3.1440000000000003E-2</v>
+        <v>1.8815999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>1.103E-2</v>
+        <v>3.8570000000000002E-3</v>
       </c>
       <c r="D2">
-        <v>2.8127599999999999</v>
+        <v>3.070236</v>
       </c>
       <c r="E2">
-        <v>0.17294999999999999</v>
+        <v>0.10104200000000001</v>
       </c>
       <c r="F2">
-        <v>1.1559999999999999</v>
+        <v>0.66449999999999998</v>
       </c>
       <c r="G2">
-        <v>0.78320000000000001</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="H2">
-        <v>0.99773860000000003</v>
-      </c>
-      <c r="I2" s="7">
-        <v>2.1632470000000001</v>
+        <v>0.99907319999999999</v>
+      </c>
+      <c r="I2">
+        <v>2.16066</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2">
         <v>5.2206999999999999</v>
@@ -595,31 +611,31 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>3.2333000000000001E-2</v>
+        <v>3.1530000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>8.8649999999999996E-3</v>
+        <v>1.031E-2</v>
       </c>
       <c r="D3">
-        <v>2.8856290000000002</v>
+        <v>2.8961199999999998</v>
       </c>
       <c r="E3">
-        <v>0.12614700000000001</v>
+        <v>0.15028</v>
       </c>
       <c r="F3">
-        <v>0.97670000000000001</v>
+        <v>0.95909999999999995</v>
       </c>
       <c r="G3">
-        <v>0.96609999999999996</v>
+        <v>0.96940000000000004</v>
       </c>
       <c r="H3">
-        <v>0.9994016</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2.531336</v>
+        <v>0.96729690000000002</v>
+      </c>
+      <c r="I3">
+        <v>2.5249320000000002</v>
       </c>
       <c r="J3">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K3">
         <v>5.2043999999999997</v>
@@ -645,31 +661,31 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>3.2059999999999998E-2</v>
+        <v>1.8127000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>1.0959999999999999E-2</v>
+        <v>5.8630000000000002E-3</v>
       </c>
       <c r="D4">
-        <v>2.38442</v>
+        <v>2.7332109999999998</v>
       </c>
       <c r="E4">
-        <v>0.20898</v>
+        <v>0.196963</v>
       </c>
       <c r="F4">
-        <v>0.2387</v>
+        <v>0.20530000000000001</v>
       </c>
       <c r="G4">
-        <v>0.57930000000000004</v>
+        <v>0.72340000000000004</v>
       </c>
       <c r="H4">
-        <v>0.99948380000000003</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1.188617</v>
+        <v>0.99927820000000001</v>
+      </c>
+      <c r="I4">
+        <v>1.1770940000000001</v>
       </c>
       <c r="J4">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K4">
         <v>0.43559999999999999</v>

--- a/Data/Fresh_LWR_data/Calculated_variables_fresh.xlsx
+++ b/Data/Fresh_LWR_data/Calculated_variables_fresh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Data\Fresh_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F02738A-9DCB-4902-A9ED-B6E3570C2162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A6EB92-5239-40D3-A923-A039F89B093B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="90" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
